--- a/documenten/kerntaak_1/1.3/use case/use_cases_template_account_aanmaken.xlsx
+++ b/documenten/kerntaak_1/1.3/use case/use_cases_template_account_aanmaken.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\did-you-had-a-good-day\documenten\kerntaak_1\1.3\use case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PvB\exam\documenten\kerntaak_1\1.3\use case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5FF2D6E-161F-4570-9B26-237129711628}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="5796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -69,16 +68,16 @@
     <t xml:space="preserve">de gebruiker druk op een knop om een account toe tevoegen. Dan komt er een fomulier waar de gebruiker een gebruiker naam, wachtwoord en email kan invullen </t>
   </si>
   <si>
-    <t>geen verbinding met de database, de gebruiker naam bestaat al</t>
-  </si>
-  <si>
-    <t>je krijgt een melding dat de gebruiker goed is aangemaakt.je ziet de gebruiker in de overzicht.</t>
+    <t>je krijgt een melding dat de gebruiker goed is aangemaakt. je ziet de gebruiker in de overzicht.</t>
+  </si>
+  <si>
+    <t>geen verbinding met de database, de gebruikersnaam bestaat al</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,20 +428,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -458,7 +457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -466,7 +465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -474,7 +473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -482,15 +481,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -498,12 +497,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/documenten/kerntaak_1/1.3/use case/use_cases_template_account_aanmaken.xlsx
+++ b/documenten/kerntaak_1/1.3/use case/use_cases_template_account_aanmaken.xlsx
@@ -62,16 +62,16 @@
     <t>account aanmaken</t>
   </si>
   <si>
-    <t>ingelogd op de dashboard, op de pagina account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de gebruiker druk op een knop om een account toe tevoegen. Dan komt er een fomulier waar de gebruiker een gebruiker naam, wachtwoord en email kan invullen </t>
-  </si>
-  <si>
     <t>je krijgt een melding dat de gebruiker goed is aangemaakt. je ziet de gebruiker in de overzicht.</t>
   </si>
   <si>
     <t>geen verbinding met de database, de gebruikersnaam bestaat al</t>
+  </si>
+  <si>
+    <t>ingelogd op het dashboard, op de pagina account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de gebruiker drukt op een knop om een account toe te voegen. Dan komt er een fomulier waar de gebruiker een gebruikersnaam, wachtwoord en email kan invullen </t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
